--- a/配网结果.xlsx
+++ b/配网结果.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,12 @@
     </font>
     <font>
       <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -67,6 +73,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +665,402 @@
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/配网结果.xlsx
+++ b/配网结果.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <color rgb="000000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,17 +454,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -737,22 +737,22 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
@@ -836,22 +836,22 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
@@ -935,22 +935,22 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>⭕</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
@@ -962,105 +962,6 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="n"/>
-      <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
-      <c r="J16" s="1" t="n"/>
-      <c r="K16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="n"/>
-      <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/配网结果.xlsx
+++ b/配网结果.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
@@ -962,6 +962,402 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>⭕</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
